--- a/Doc/Matlab/caishi/caishi(2022.4.29.12)5min_tou_44.30_45.59(down2up)_output.xlsx
+++ b/Doc/Matlab/caishi/caishi(2022.4.29.12)5min_tou_44.30_45.59(down2up)_output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{428E1DCA-95AE-4C57-98C3-8C5AFC707118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0755D56E-3B5B-4982-8DA4-1DADE549E8C8}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="38400" yWindow="465" windowWidth="19200" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10274,7 +10274,7 @@
   <dimension ref="A1:L1361"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K1187" sqref="K1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
